--- a/Modelagem/Dicionário de Dados.xlsx
+++ b/Modelagem/Dicionário de Dados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\TCC\Modelagem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\TCC\portal-transparencia-Emurb\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A766E8-E34A-4962-80B8-A5DC470425F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460A5DA4-249C-4C3A-9C59-D0082436F685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{6F74207C-FE9B-4F55-9170-6BDF66C58CA2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="88">
   <si>
     <t>TIPO</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>Identificador para o credor (Número Aleatório)</t>
+  </si>
+  <si>
+    <t>Anulação</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1207,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,7 +1417,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>71</v>
@@ -1583,7 +1586,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>71</v>

--- a/Modelagem/Dicionário de Dados.xlsx
+++ b/Modelagem/Dicionário de Dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\TCC\portal-transparencia-Emurb\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460A5DA4-249C-4C3A-9C59-D0082436F685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F393CCD0-E839-4B07-A687-7B38E1A9E3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{6F74207C-FE9B-4F55-9170-6BDF66C58CA2}"/>
+    <workbookView xWindow="1485" yWindow="4875" windowWidth="14715" windowHeight="7875" firstSheet="1" activeTab="2" xr2:uid="{6F74207C-FE9B-4F55-9170-6BDF66C58CA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Despesas Empenhos" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="81">
   <si>
     <t>TIPO</t>
   </si>
@@ -85,12 +85,6 @@
     <t>Valor retido (Esclarecer)</t>
   </si>
   <si>
-    <t>Dotação</t>
-  </si>
-  <si>
-    <t>Documento</t>
-  </si>
-  <si>
     <t>SqEmpenho</t>
   </si>
   <si>
@@ -266,21 +260,6 @@
   </si>
   <si>
     <t xml:space="preserve"> (11, 2)</t>
-  </si>
-  <si>
-    <t>Empenho</t>
-  </si>
-  <si>
-    <t>CNPJ</t>
-  </si>
-  <si>
-    <t>CNPJ da unidade (Emurb)</t>
-  </si>
-  <si>
-    <t>Liq</t>
-  </si>
-  <si>
-    <t>Processo</t>
   </si>
   <si>
     <t>Identificador do tipo da despesa</t>
@@ -317,18 +296,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -419,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -427,64 +400,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -801,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9747052E-C349-4F08-A64A-8F2E810BA325}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A23:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,10 +788,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -837,26 +804,26 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>53</v>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="7" t="s">
-        <v>54</v>
+      <c r="A3" s="11"/>
+      <c r="B3" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -865,32 +832,32 @@
         <v>45</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -899,94 +866,94 @@
         <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>61</v>
+      <c r="B6" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="7" t="s">
-        <v>63</v>
+      <c r="A7" s="11"/>
+      <c r="B7" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="7" t="s">
-        <v>65</v>
+      <c r="A8" s="11"/>
+      <c r="B8" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="7" t="s">
-        <v>64</v>
+      <c r="A9" s="11"/>
+      <c r="B9" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>29</v>
+      <c r="A10" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -1001,9 +968,9 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
@@ -1018,76 +985,76 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>73</v>
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>74</v>
+      <c r="A15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>34</v>
+      <c r="A16" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
@@ -1096,28 +1063,28 @@
         <v>100</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>25</v>
+      <c r="A18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="7" t="s">
-        <v>24</v>
+      <c r="A19" s="11"/>
+      <c r="B19" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
@@ -1126,30 +1093,30 @@
         <v>25</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>39</v>
+      <c r="B21" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
@@ -1158,35 +1125,7 @@
         <v>500</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1204,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8A7104-9E28-42F9-8C20-AD14838EFF3A}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,10 +1162,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1240,24 +1179,24 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>53</v>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="7" t="s">
-        <v>54</v>
+      <c r="A3" s="11"/>
+      <c r="B3" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -1266,28 +1205,28 @@
         <v>45</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -1296,82 +1235,82 @@
         <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>61</v>
+      <c r="B6" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="7" t="s">
-        <v>63</v>
+      <c r="A7" s="11"/>
+      <c r="B7" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="7" t="s">
-        <v>65</v>
+      <c r="A8" s="11"/>
+      <c r="B8" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="7" t="s">
-        <v>64</v>
+      <c r="A9" s="11"/>
+      <c r="B9" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>52</v>
+      <c r="A10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -1384,9 +1323,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
@@ -1399,75 +1338,75 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>72</v>
+      <c r="A13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>70</v>
+      <c r="A15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>34</v>
+      <c r="A16" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
@@ -1476,28 +1415,28 @@
         <v>100</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>25</v>
+      <c r="A18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="7" t="s">
-        <v>24</v>
+      <c r="A19" s="13"/>
+      <c r="B19" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
@@ -1506,7 +1445,7 @@
         <v>25</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1514,22 +1453,22 @@
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>39</v>
+      <c r="B21" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
@@ -1538,34 +1477,8 @@
         <v>500</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1583,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34EBBD2-AAF8-42FC-A6C4-0B5DFDF17C26}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,10 +1514,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1617,26 +1530,26 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>53</v>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="7" t="s">
-        <v>54</v>
+      <c r="A3" s="11"/>
+      <c r="B3" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -1645,32 +1558,32 @@
         <v>45</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -1679,94 +1592,94 @@
         <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>61</v>
+      <c r="B6" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="7" t="s">
-        <v>63</v>
+      <c r="A7" s="11"/>
+      <c r="B7" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="7" t="s">
-        <v>65</v>
+      <c r="A8" s="11"/>
+      <c r="B8" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="7" t="s">
-        <v>64</v>
+      <c r="A9" s="11"/>
+      <c r="B9" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>52</v>
+      <c r="A10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -1781,9 +1694,9 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
@@ -1798,36 +1711,36 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>69</v>
+      <c r="A13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>71</v>
+      <c r="A14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>13</v>
@@ -1836,17 +1749,17 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>70</v>
+      <c r="A15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>14</v>
@@ -1858,18 +1771,18 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>38</v>
+      <c r="B16" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1878,11 +1791,11 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>39</v>
+      <c r="A17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
@@ -1891,7 +1804,7 @@
         <v>500</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1900,26 +1813,26 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>26</v>
+      <c r="A18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="9" t="s">
-        <v>27</v>
+      <c r="A19" s="20"/>
+      <c r="B19" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
@@ -1928,28 +1841,28 @@
         <v>25</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>25</v>
+      <c r="A20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="10" t="s">
-        <v>24</v>
+      <c r="A21" s="18"/>
+      <c r="B21" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
@@ -1958,65 +1871,8 @@
         <v>25</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Modelagem/Dicionário de Dados.xlsx
+++ b/Modelagem/Dicionário de Dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\TCC\portal-transparencia-Emurb\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F393CCD0-E839-4B07-A687-7B38E1A9E3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52BEB1B-3389-4F11-BF94-CCC85CCC75B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="4875" windowWidth="14715" windowHeight="7875" firstSheet="1" activeTab="2" xr2:uid="{6F74207C-FE9B-4F55-9170-6BDF66C58CA2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6F74207C-FE9B-4F55-9170-6BDF66C58CA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Despesas Empenhos" sheetId="3" r:id="rId1"/>
@@ -79,33 +79,12 @@
     <t>Nome do credor</t>
   </si>
   <si>
-    <t>Valor anulado (Esclarecer)</t>
-  </si>
-  <si>
-    <t>Valor retido (Esclarecer)</t>
-  </si>
-  <si>
     <t>SqEmpenho</t>
   </si>
   <si>
-    <t>Valor liquidado (Esclarecer)</t>
-  </si>
-  <si>
     <t>(11, 2)</t>
   </si>
   <si>
-    <t>Valor reforçado (Esclarecer)</t>
-  </si>
-  <si>
-    <t>Valor Anulado (Esclarecer)</t>
-  </si>
-  <si>
-    <t>Valor Empenhado (Esclarecer)</t>
-  </si>
-  <si>
-    <t>Valor pago (Esclarecer)</t>
-  </si>
-  <si>
     <t>desc_tipo_despesa</t>
   </si>
   <si>
@@ -281,6 +260,27 @@
   </si>
   <si>
     <t>Anulação</t>
+  </si>
+  <si>
+    <t>Valor Empenhado</t>
+  </si>
+  <si>
+    <t>Valor Anulado</t>
+  </si>
+  <si>
+    <t>Valor reforçado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor pago </t>
+  </si>
+  <si>
+    <t>Valor anulado</t>
+  </si>
+  <si>
+    <t>Valor retido</t>
+  </si>
+  <si>
+    <t>Valor liquidado</t>
   </si>
 </sst>
 </file>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9747052E-C349-4F08-A64A-8F2E810BA325}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A23:XFD24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,10 +788,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -808,14 +808,14 @@
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -823,7 +823,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -832,7 +832,7 @@
         <v>45</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -842,14 +842,14 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -857,7 +857,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -866,7 +866,7 @@
         <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -876,14 +876,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -891,14 +891,14 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -906,14 +906,14 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -921,31 +921,31 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -953,7 +953,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -970,7 +970,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
@@ -986,75 +986,75 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
@@ -1063,28 +1063,28 @@
         <v>100</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
@@ -1093,22 +1093,22 @@
         <v>25</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1116,7 +1116,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         <v>500</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1145,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8A7104-9E28-42F9-8C20-AD14838EFF3A}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,10 +1162,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1183,20 +1183,20 @@
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -1205,7 +1205,7 @@
         <v>45</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1213,20 +1213,20 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -1235,7 +1235,7 @@
         <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1243,74 +1243,74 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -1325,7 +1325,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
@@ -1339,74 +1339,74 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
@@ -1415,28 +1415,28 @@
         <v>100</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
@@ -1445,7 +1445,7 @@
         <v>25</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1453,14 +1453,14 @@
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1468,7 +1468,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
@@ -1477,7 +1477,7 @@
         <v>500</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1498,26 +1498,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34EBBD2-AAF8-42FC-A6C4-0B5DFDF17C26}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.42578125" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1534,14 +1535,14 @@
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1549,7 +1550,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -1558,7 +1559,7 @@
         <v>45</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1568,14 +1569,14 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1583,7 +1584,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -1592,7 +1593,7 @@
         <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1602,14 +1603,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1617,14 +1618,14 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1632,14 +1633,14 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1647,31 +1648,31 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1679,7 +1680,7 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -1696,7 +1697,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
@@ -1712,57 +1713,57 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1775,14 +1776,14 @@
         <v>7</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1792,10 +1793,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
@@ -1804,7 +1805,7 @@
         <v>500</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1814,17 +1815,17 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1832,7 +1833,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
@@ -1841,28 +1842,28 @@
         <v>25</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
@@ -1871,7 +1872,7 @@
         <v>25</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
